--- a/results/mp/logistic/corona/confidence/126/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,78 +40,96 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>warning</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>war</t>
+    <t>die</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
   </si>
   <si>
     <t>lowest</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>lower</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
@@ -121,22 +139,25 @@
     <t>stop</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>fight</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>co</t>
+    <t>corona</t>
   </si>
   <si>
     <t>negative</t>
@@ -151,96 +172,117 @@
     <t>free</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>ensure</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
@@ -250,13 +292,19 @@
     <t>safety</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>corona</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>keep</t>
   </si>
 </sst>
 </file>
@@ -614,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,10 +670,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -683,13 +731,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -701,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -725,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -754,16 +802,16 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -775,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -783,13 +831,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8333333333333334</v>
+        <v>0.821917808219178</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -801,19 +849,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -825,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -833,13 +881,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8116438356164384</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C6">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -851,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -875,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -883,13 +931,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7931034482758621</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -901,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -925,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,16 +1002,16 @@
         <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -975,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -983,13 +1031,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7333333333333333</v>
+        <v>0.76</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1001,19 +1049,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K9">
-        <v>0.8207547169811321</v>
+        <v>0.825065274151436</v>
       </c>
       <c r="L9">
-        <v>87</v>
+        <v>316</v>
       </c>
       <c r="M9">
-        <v>87</v>
+        <v>316</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1025,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>19</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1033,13 +1081,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7027027027027027</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1051,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K10">
-        <v>0.8198433420365535</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L10">
-        <v>314</v>
+        <v>27</v>
       </c>
       <c r="M10">
-        <v>314</v>
+        <v>27</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1075,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>69</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1083,13 +1131,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6538461538461539</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1104,16 +1152,16 @@
         <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K11">
-        <v>0.796875</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L11">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M11">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1125,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1133,13 +1181,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.64</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1151,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K12">
         <v>0.795774647887324</v>
@@ -1183,13 +1231,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6086956521739131</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1201,19 +1249,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.79375</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1225,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1233,7 +1281,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5652173913043478</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1251,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K14">
-        <v>0.7872340425531915</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1275,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1283,13 +1331,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5423728813559322</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C15">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1301,19 +1349,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K15">
-        <v>0.76875</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L15">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="M15">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1325,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1333,13 +1381,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5343915343915344</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C16">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1351,19 +1399,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K16">
-        <v>0.7682926829268293</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="M16">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1375,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1383,13 +1431,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5193798449612403</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C17">
-        <v>268</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>268</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1401,19 +1449,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>248</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K17">
-        <v>0.7441860465116279</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1425,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1433,13 +1481,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5098039215686274</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1451,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K18">
-        <v>0.7222222222222222</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1475,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1483,13 +1531,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.5608465608465608</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1501,19 +1549,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K19">
-        <v>0.7083333333333334</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1525,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1533,13 +1581,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1551,19 +1599,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K20">
-        <v>0.6984126984126984</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1575,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1583,13 +1631,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4697986577181208</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C21">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1601,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L21">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1625,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1633,13 +1681,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.44</v>
+        <v>0.5271317829457365</v>
       </c>
       <c r="C22">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="D22">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1651,19 +1699,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K22">
-        <v>0.64</v>
+        <v>0.765625</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1675,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1683,13 +1731,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4358974358974359</v>
+        <v>0.525</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1701,19 +1749,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K23">
-        <v>0.6363636363636364</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1725,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1733,7 +1781,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4102564102564102</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C24">
         <v>16</v>
@@ -1751,19 +1799,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K24">
-        <v>0.6352941176470588</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L24">
-        <v>216</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>216</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1775,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>124</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1783,13 +1831,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.375</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1801,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K25">
-        <v>0.6063829787234043</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="M25">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1825,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1833,38 +1881,38 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3636363636363636</v>
+        <v>0.4966442953020134</v>
       </c>
       <c r="C26">
+        <v>74</v>
+      </c>
+      <c r="D26">
+        <v>74</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>75</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L26">
         <v>20</v>
       </c>
-      <c r="D26">
+      <c r="M26">
         <v>20</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>35</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K26">
-        <v>0.602510460251046</v>
-      </c>
-      <c r="L26">
-        <v>144</v>
-      </c>
-      <c r="M26">
-        <v>144</v>
-      </c>
       <c r="N26">
         <v>1</v>
       </c>
@@ -1875,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>95</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1883,13 +1931,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3090909090909091</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C27">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1901,31 +1949,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K27">
-        <v>0.5938566552901023</v>
+        <v>0.675</v>
       </c>
       <c r="L27">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="N27">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>119</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1933,13 +1981,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D28">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1951,19 +1999,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K28">
-        <v>0.5909090909090909</v>
+        <v>0.6647058823529411</v>
       </c>
       <c r="L28">
-        <v>13</v>
+        <v>226</v>
       </c>
       <c r="M28">
-        <v>13</v>
+        <v>226</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1975,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1983,13 +2031,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2380952380952381</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C29">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D29">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2001,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>192</v>
+        <v>43</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K29">
-        <v>0.5846153846153846</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2025,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2033,13 +2081,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2051,19 +2099,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K30">
-        <v>0.575</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L30">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M30">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2075,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2083,13 +2131,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1818181818181818</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2101,13 +2149,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K31">
-        <v>0.5714285714285714</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L31">
         <v>20</v>
@@ -2125,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2133,13 +2181,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1367292225201072</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C32">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2151,19 +2199,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>322</v>
+        <v>36</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K32">
-        <v>0.5357142857142857</v>
+        <v>0.6</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2175,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2183,13 +2231,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05333333333333334</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2201,19 +2249,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>284</v>
+        <v>36</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K33">
-        <v>0.5285714285714286</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2225,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2233,37 +2281,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.008415147265077139</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C34">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D34">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E34">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.8200000000000001</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>2121</v>
+        <v>65</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K34">
-        <v>0.5280898876404494</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L34">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2275,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2283,205 +2331,633 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.006765463917525773</v>
+        <v>0.2420634920634921</v>
       </c>
       <c r="C35">
+        <v>61</v>
+      </c>
+      <c r="D35">
+        <v>61</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>191</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K35">
+        <v>0.5899581589958159</v>
+      </c>
+      <c r="L35">
+        <v>141</v>
+      </c>
+      <c r="M35">
+        <v>141</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.2337662337662338</v>
+      </c>
+      <c r="C36">
+        <v>18</v>
+      </c>
+      <c r="D36">
+        <v>18</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>59</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K36">
+        <v>0.5857142857142857</v>
+      </c>
+      <c r="L36">
+        <v>41</v>
+      </c>
+      <c r="M36">
+        <v>41</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.1625</v>
+      </c>
+      <c r="C37">
+        <v>13</v>
+      </c>
+      <c r="D37">
+        <v>13</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>67</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K37">
+        <v>0.5851063829787234</v>
+      </c>
+      <c r="L37">
+        <v>55</v>
+      </c>
+      <c r="M37">
+        <v>55</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.128686327077748</v>
+      </c>
+      <c r="C38">
+        <v>48</v>
+      </c>
+      <c r="D38">
+        <v>48</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>325</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K38">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="L38">
+        <v>13</v>
+      </c>
+      <c r="M38">
+        <v>13</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.06333333333333334</v>
+      </c>
+      <c r="C39">
+        <v>19</v>
+      </c>
+      <c r="D39">
+        <v>19</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>281</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K39">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="L39">
+        <v>13</v>
+      </c>
+      <c r="M39">
+        <v>13</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.01256848211408314</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40">
+        <v>43</v>
+      </c>
+      <c r="E40">
+        <v>0.09</v>
+      </c>
+      <c r="F40">
+        <v>0.91</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>3064</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K40">
+        <v>0.54</v>
+      </c>
+      <c r="L40">
+        <v>27</v>
+      </c>
+      <c r="M40">
+        <v>27</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.007012622720897616</v>
+      </c>
+      <c r="C41">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>19</v>
+      </c>
+      <c r="E41">
+        <v>0.21</v>
+      </c>
+      <c r="F41">
+        <v>0.79</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>2124</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K41">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="L41">
+        <v>35</v>
+      </c>
+      <c r="M41">
+        <v>35</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.004399748585795098</v>
+      </c>
+      <c r="C42">
+        <v>14</v>
+      </c>
+      <c r="D42">
+        <v>33</v>
+      </c>
+      <c r="E42">
+        <v>0.58</v>
+      </c>
+      <c r="F42">
+        <v>0.42</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>3168</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K42">
+        <v>0.4719101123595505</v>
+      </c>
+      <c r="L42">
+        <v>42</v>
+      </c>
+      <c r="M42">
+        <v>42</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="J43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K43">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="L43">
         <v>21</v>
       </c>
-      <c r="D35">
+      <c r="M43">
+        <v>21</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>24</v>
       </c>
-      <c r="E35">
-        <v>0.12</v>
-      </c>
-      <c r="F35">
-        <v>0.88</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>3083</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K35">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="L35">
-        <v>15</v>
-      </c>
-      <c r="M35">
-        <v>15</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
+    </row>
+    <row r="44" spans="1:17">
+      <c r="J44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K44">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="L44">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K36">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="L36">
-        <v>20</v>
-      </c>
-      <c r="M36">
-        <v>20</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K37">
-        <v>0.4047619047619048</v>
-      </c>
-      <c r="L37">
-        <v>17</v>
-      </c>
-      <c r="M37">
-        <v>17</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K38">
-        <v>0.3529411764705883</v>
-      </c>
-      <c r="L38">
+      <c r="M44">
         <v>18</v>
       </c>
-      <c r="M38">
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="J45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="L45">
+        <v>21</v>
+      </c>
+      <c r="M45">
+        <v>21</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K46">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="L46">
+        <v>27</v>
+      </c>
+      <c r="M46">
+        <v>27</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K47">
+        <v>0.3150684931506849</v>
+      </c>
+      <c r="L47">
+        <v>23</v>
+      </c>
+      <c r="M47">
+        <v>23</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K48">
+        <v>0.3050847457627119</v>
+      </c>
+      <c r="L48">
         <v>18</v>
       </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
+      <c r="M48">
+        <v>18</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K49">
+        <v>0.296875</v>
+      </c>
+      <c r="L49">
+        <v>19</v>
+      </c>
+      <c r="M49">
+        <v>19</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K50">
+        <v>0.1129032258064516</v>
+      </c>
+      <c r="L50">
+        <v>14</v>
+      </c>
+      <c r="M50">
+        <v>14</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K51">
+        <v>0.005961719485409476</v>
+      </c>
+      <c r="L51">
+        <v>19</v>
+      </c>
+      <c r="M51">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K39">
-        <v>0.3013698630136986</v>
-      </c>
-      <c r="L39">
-        <v>22</v>
-      </c>
-      <c r="M39">
-        <v>22</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K40">
-        <v>0.2564102564102564</v>
-      </c>
-      <c r="L40">
-        <v>20</v>
-      </c>
-      <c r="M40">
-        <v>20</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K41">
-        <v>0.005950516755402443</v>
-      </c>
-      <c r="L41">
-        <v>19</v>
-      </c>
-      <c r="M41">
-        <v>27</v>
-      </c>
-      <c r="N41">
-        <v>0.7</v>
-      </c>
-      <c r="O41">
-        <v>0.3</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>3174</v>
+      <c r="N51">
+        <v>0.58</v>
+      </c>
+      <c r="O51">
+        <v>0.42</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>3168</v>
       </c>
     </row>
   </sheetData>
